--- a/Data_FitnessCentrum.xlsx
+++ b/Data_FitnessCentrum.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaestroDavo\Desktop\FitnessCentrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaestroDavo\Documents\GitHub\MaS - Fitness Centrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -617,6 +617,12 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,12 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -954,39 +954,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="8" max="9" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="41"/>
+      <c r="D2" s="43"/>
       <c r="H2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="G3" s="42" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="G3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:13" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -1635,11 +1637,11 @@
       <c r="E30" s="6">
         <v>1</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="45"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" s="10">
@@ -2622,11 +2624,11 @@
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D97" s="46">
+      <c r="D97" s="41">
         <f>AVERAGE(D81:D96,D43:D79,D5:D41)</f>
         <v>16.888888888888889</v>
       </c>
-      <c r="E97" s="47">
+      <c r="E97" s="42">
         <f>COUNT(E5:E96)</f>
         <v>92</v>
       </c>
